--- a/CBregs.xlsx
+++ b/CBregs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delgadokp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FD3005-76B3-415A-B317-A06F946B7042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5E919-C210-4214-8BF1-6E32B97754DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
   <si>
     <t>Regulation ID</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>LIC-BN-01</t>
-  </si>
-  <si>
-    <t>Brunei</t>
   </si>
   <si>
     <t>Autoriti Monetari Brunei Darussalam</t>
@@ -2502,7 +2499,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="A8:C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,14 +3011,14 @@
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E15" s="2">
         <v>2015</v>
@@ -3030,33 +3027,33 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E16" s="2">
         <v>2016</v>
@@ -3065,19 +3062,19 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3143,225 +3140,225 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="4">
         <v>2022</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E4" s="4">
         <v>2006</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4">
         <v>2010</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>93</v>
@@ -3369,848 +3366,848 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E6" s="4">
         <v>2024</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4">
         <v>2024</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="4">
         <v>2025</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4">
         <v>2025</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="E11" s="4">
         <v>2024</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E12" s="4">
         <v>2023</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E13" s="4">
         <v>2020</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="4">
         <v>2021</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E15" s="4">
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E16" s="4">
         <v>2021</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E17" s="4">
         <v>2022</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4">
         <v>2022</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E19" s="4">
         <v>2024</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="E20" s="4">
         <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="E21" s="4">
         <v>2015</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="E22" s="4">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E23" s="4">
         <v>2023</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4280,28 +4277,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4324,22 +4321,22 @@
         <v>2019</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -4356,36 +4353,36 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -4400,22 +4397,22 @@
         <v>2013</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>33</v>
@@ -4423,7 +4420,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -4432,36 +4429,36 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="4">
         <v>2019</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -4470,36 +4467,36 @@
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E6" s="4">
         <v>2019</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -4514,22 +4511,22 @@
         <v>2018</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>47</v>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -4546,28 +4543,28 @@
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>60</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -4584,28 +4581,28 @@
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E9" s="4">
         <v>2019</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>60</v>
@@ -4613,7 +4610,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>67</v>
@@ -4628,22 +4625,22 @@
         <v>2017</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>73</v>
@@ -4651,7 +4648,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>67</v>
@@ -4660,28 +4657,28 @@
         <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" s="4">
         <v>2020</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>73</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>75</v>
@@ -4704,22 +4701,22 @@
         <v>2012</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>81</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>75</v>
@@ -4736,28 +4733,28 @@
         <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E13" s="4">
         <v>2014</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>81</v>
@@ -4765,7 +4762,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>88</v>
@@ -4774,28 +4771,28 @@
         <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E14" s="4">
         <v>1999</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>93</v>
@@ -4803,7 +4800,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>95</v>
@@ -4812,28 +4809,28 @@
         <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E15" s="4">
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>100</v>
@@ -4841,78 +4838,78 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="E16" s="4">
         <v>2006</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E17" s="4">
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4974,31 +4971,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>10</v>
@@ -5006,7 +5003,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -5015,39 +5012,39 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E2" s="9">
         <v>2021</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -5056,39 +5053,39 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E3" s="9">
         <v>2019</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>26</v>
@@ -5097,39 +5094,39 @@
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="9">
         <v>2020</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -5138,39 +5135,39 @@
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5" s="9">
         <v>2018</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>41</v>
@@ -5179,39 +5176,39 @@
         <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E6" s="9">
         <v>2021</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>515</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>41</v>
@@ -5220,39 +5217,39 @@
         <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E7" s="9">
         <v>2017</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>54</v>
@@ -5267,25 +5264,25 @@
         <v>2020</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>60</v>
@@ -5293,7 +5290,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>54</v>
@@ -5302,31 +5299,31 @@
         <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E9" s="9">
         <v>2024</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>536</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>60</v>
@@ -5334,7 +5331,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -5343,31 +5340,31 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="9">
         <v>2020</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>541</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>73</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -5384,31 +5381,31 @@
         <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E11" s="9">
         <v>2019</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>73</v>
@@ -5416,7 +5413,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>75</v>
@@ -5425,31 +5422,31 @@
         <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E12" s="9">
         <v>2020</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>556</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>81</v>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>75</v>
@@ -5466,31 +5463,31 @@
         <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>81</v>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>88</v>
@@ -5507,31 +5504,31 @@
         <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>565</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>93</v>
@@ -5539,7 +5536,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>95</v>
@@ -5548,31 +5545,31 @@
         <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E15" s="9">
         <v>2021</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>569</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>100</v>
@@ -5580,84 +5577,84 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="E16" s="9">
         <v>2018</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>521</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="E17" s="9">
         <v>2021</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5688,7 +5685,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,28 +5715,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
@@ -5747,7 +5744,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -5756,36 +5753,36 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E2" s="9">
         <v>2019</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -5794,36 +5791,36 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E3" s="9">
         <v>2015</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="10" t="s">
         <v>599</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>26</v>
@@ -5832,36 +5829,36 @@
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" s="9">
         <v>2001</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -5870,36 +5867,36 @@
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E5" s="9">
         <v>2020</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>41</v>
@@ -5908,36 +5905,36 @@
         <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E6" s="9">
         <v>2018</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>41</v>
@@ -5946,36 +5943,36 @@
         <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E7" s="9">
         <v>2021</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>54</v>
@@ -5984,28 +5981,28 @@
         <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E8" s="9">
         <v>2017</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>638</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>60</v>
@@ -6013,7 +6010,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>54</v>
@@ -6022,28 +6019,28 @@
         <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E9" s="9">
         <v>2021</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>643</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>60</v>
@@ -6051,7 +6048,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -6060,28 +6057,28 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E10" s="9">
         <v>2019</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>649</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>73</v>
@@ -6089,7 +6086,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -6104,22 +6101,22 @@
         <v>2017</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>656</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>73</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>75</v>
@@ -6136,28 +6133,28 @@
         <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E12" s="9">
         <v>2023</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>637</v>
-      </c>
       <c r="I12" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="K12" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>81</v>
@@ -6165,7 +6162,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>75</v>
@@ -6174,28 +6171,28 @@
         <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>664</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>81</v>
@@ -6203,7 +6200,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>88</v>
@@ -6212,28 +6209,28 @@
         <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>669</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>93</v>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>95</v>
@@ -6250,28 +6247,28 @@
         <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E15" s="9">
         <v>2014</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>673</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>100</v>
@@ -6279,78 +6276,78 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>675</v>
       </c>
       <c r="E16" s="9">
         <v>2012</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>678</v>
       </c>
       <c r="E17" s="9">
         <v>2014</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="K17" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
